--- a/database/2022-mens-world-cup.xlsx
+++ b/database/2022-mens-world-cup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDEA5A0-652C-794B-8C5F-4AACD1831B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCAD34C-66C2-A549-BE43-096913287F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="19200" windowHeight="10080" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19280" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -473,9 +473,6 @@
     <t>جام جهانی 2022 در قطر</t>
   </si>
   <si>
-    <t>カタールのワールドカップ2022</t>
-  </si>
-  <si>
     <t>قطر</t>
   </si>
   <si>
@@ -548,39 +545,6 @@
     <t>W.C. 2022 Schedule &amp; Score Card</t>
   </si>
   <si>
-    <r>
-      <t>2022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>杯スケジュールとスコアカード</t>
-    </r>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
@@ -678,6 +642,12 @@
   </si>
   <si>
     <t>Asia/Qatar</t>
+  </si>
+  <si>
+    <t>2022W杯 日程・スコア</t>
+  </si>
+  <si>
+    <t>2022カタールW杯</t>
   </si>
 </sst>
 </file>
@@ -702,10 +672,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -728,9 +698,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,7 +1106,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1182,7 +1153,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>130</v>
@@ -1202,8 +1173,8 @@
       <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="H2" t="s">
-        <v>144</v>
+      <c r="H2" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="I2" t="s">
         <v>143</v>
@@ -1211,10 +1182,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
         <v>167</v>
-      </c>
-      <c r="B3" t="s">
-        <v>168</v>
       </c>
       <c r="C3" t="s">
         <v>136</v>
@@ -1231,11 +1202,11 @@
       <c r="G3" t="s">
         <v>140</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" t="s">
         <v>169</v>
-      </c>
-      <c r="I3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1261,18 +1232,18 @@
         <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1301,7 +1272,7 @@
         <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1327,10 +1298,10 @@
         <v>68</v>
       </c>
       <c r="H7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" t="s">
         <v>148</v>
-      </c>
-      <c r="I7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1356,10 +1327,10 @@
         <v>69</v>
       </c>
       <c r="H8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" t="s">
         <v>150</v>
-      </c>
-      <c r="I8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1385,10 +1356,10 @@
         <v>70</v>
       </c>
       <c r="H9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" t="s">
         <v>152</v>
-      </c>
-      <c r="I9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1414,10 +1385,10 @@
         <v>71</v>
       </c>
       <c r="H10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" t="s">
         <v>154</v>
-      </c>
-      <c r="I10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1443,10 +1414,10 @@
         <v>129</v>
       </c>
       <c r="H11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" t="s">
         <v>156</v>
-      </c>
-      <c r="I11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1472,10 +1443,10 @@
         <v>73</v>
       </c>
       <c r="H12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" t="s">
         <v>158</v>
-      </c>
-      <c r="I12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1501,10 +1472,10 @@
         <v>74</v>
       </c>
       <c r="H13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" t="s">
         <v>160</v>
-      </c>
-      <c r="I13" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1539,10 +1510,10 @@
         <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
         <v>63</v>
@@ -1551,22 +1522,22 @@
         <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" t="s">
         <v>162</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" t="s">
         <v>163</v>
-      </c>
-      <c r="J1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2937,7 +2908,7 @@
         <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3247,95 +3218,95 @@
         <v>141</v>
       </c>
       <c r="J1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
